--- a/Lab 2 Submissions/SSP2_Sportz_Lab2_ProductBacklog.xlsx
+++ b/Lab 2 Submissions/SSP2_Sportz_Lab2_ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\cz3002_teamsportz\Lab 2 Submissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S2\CZ3002\Github\cz3002_teamsportz\Lab 2 Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45AADA-470C-4D4E-9F1D-EAC69F91269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE92DF-A6C2-484C-A2D3-68C3BFA7D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="876" windowWidth="31680" windowHeight="15300" xr2:uid="{1C014455-5009-493B-B192-14A0086967EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1C014455-5009-493B-B192-14A0086967EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="172">
   <si>
     <t>Programming</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>Coin Spawning</t>
-  </si>
-  <si>
-    <t>State Transition Diagram</t>
   </si>
 </sst>
 </file>
@@ -1041,20 +1038,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A820D915-DE86-410C-B658-0AF559F3CD7B}">
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>126</v>
       </c>
@@ -1076,14 +1073,14 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1160,14 +1157,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1189,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1200,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -1218,7 +1215,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1229,14 +1226,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -1313,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1346,14 +1343,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -1419,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1441,14 +1438,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -1459,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1547,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -1558,8 +1555,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1575,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1605,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
@@ -1700,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -1722,14 +1719,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>171</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
@@ -1827,14 +1824,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>35</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
@@ -1862,7 +1859,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>37</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>39</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>29</v>
       </c>
@@ -1940,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>33</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>34</v>
       </c>
@@ -1995,14 +1992,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +2041,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>26</v>
       </c>
@@ -2069,14 +2066,14 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -2100,7 +2097,7 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>66</v>
       </c>
@@ -2123,14 +2120,14 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>68</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>69</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>70</v>
       </c>
@@ -2173,7 +2170,7 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>27</v>
       </c>
@@ -2192,7 +2189,7 @@
       <c r="N95" s="16"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2203,14 +2200,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -2252,14 +2249,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -2292,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -2303,14 +2300,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>57</v>
       </c>
@@ -2366,7 +2363,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -2408,14 +2405,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -2485,7 +2482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -2541,14 +2538,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>71</v>
       </c>
@@ -2559,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>72</v>
       </c>
@@ -2570,14 +2567,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>73</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>74</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>75</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>76</v>
       </c>
@@ -2629,14 +2626,14 @@
       <c r="N131" s="18"/>
       <c r="O131" s="19"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>78</v>
       </c>
@@ -2647,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>77</v>
       </c>
@@ -2658,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -2669,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>80</v>
       </c>
@@ -2680,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>83</v>
       </c>
@@ -2713,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -2735,14 +2732,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -2753,7 +2750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -2764,7 +2761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>86</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>87</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>91</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>94</v>
       </c>
@@ -2848,14 +2845,14 @@
       <c r="M151" s="1"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -2866,14 +2863,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>96</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>97</v>
       </c>
@@ -2895,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -2917,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>100</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -2939,14 +2936,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -2957,7 +2954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>102</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>105</v>
       </c>
@@ -3001,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>108</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>110</v>
       </c>
@@ -3056,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>111</v>
       </c>
@@ -3067,14 +3064,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>116</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>113</v>
       </c>
@@ -3115,14 +3112,14 @@
       <c r="N176" s="1"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>119</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>120</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -3166,14 +3163,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>122</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>123</v>
       </c>
@@ -3195,14 +3192,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>124</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>125</v>
       </c>
@@ -3222,11 +3219,6 @@
       </c>
       <c r="C187" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 2 Submissions/SSP2_Sportz_Lab2_ProductBacklog.xlsx
+++ b/Lab 2 Submissions/SSP2_Sportz_Lab2_ProductBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S2\CZ3002\Github\cz3002_teamsportz\Lab 2 Submissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTU\Y2S2\cz3002_ASE\Lab 2 Submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE92DF-A6C2-484C-A2D3-68C3BFA7D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1C014455-5009-493B-B192-14A0086967EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,11 +554,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,21 +1036,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A820D915-DE86-410C-B658-0AF559F3CD7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="27" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>126</v>
       </c>
@@ -1073,14 +1072,14 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1157,14 +1156,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -1215,7 +1214,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1226,14 +1225,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -1343,14 +1342,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1438,14 +1437,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -1555,8 +1554,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="48" spans="1:15" ht="27" thickBot="1">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1574,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -1719,14 +1718,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>171</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
@@ -1824,14 +1823,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>39</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>40</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>29</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -1970,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>33</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>34</v>
       </c>
@@ -1992,14 +1991,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="4" t="s">
         <v>25</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" ht="26.25">
       <c r="A87" s="4" t="s">
         <v>26</v>
       </c>
@@ -2066,14 +2065,14 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -2097,7 +2096,7 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="12" t="s">
         <v>66</v>
       </c>
@@ -2120,14 +2119,14 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="12" t="s">
         <v>68</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="12" t="s">
         <v>69</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="15.75" thickBot="1">
       <c r="A94" s="12" t="s">
         <v>70</v>
       </c>
@@ -2170,7 +2169,7 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="27" thickBot="1">
       <c r="A95" s="15" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2188,7 @@
       <c r="N95" s="16"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2200,14 +2199,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -2249,14 +2248,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -2300,14 +2299,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>57</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -2405,14 +2404,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -2538,14 +2537,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="13" t="s">
         <v>71</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="13" t="s">
         <v>72</v>
       </c>
@@ -2567,14 +2566,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="14" t="s">
         <v>73</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="14" t="s">
         <v>74</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="15.75" thickBot="1">
       <c r="A130" s="14" t="s">
         <v>75</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" ht="27" thickBot="1">
       <c r="A131" s="3" t="s">
         <v>76</v>
       </c>
@@ -2626,14 +2625,14 @@
       <c r="N131" s="18"/>
       <c r="O131" s="19"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="14" t="s">
         <v>78</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="14" t="s">
         <v>77</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>80</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>83</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -2732,14 +2731,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>86</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>87</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>91</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="15.75" thickBot="1">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" ht="27" thickBot="1">
       <c r="A151" s="3" t="s">
         <v>94</v>
       </c>
@@ -2845,14 +2844,14 @@
       <c r="M151" s="1"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -2863,14 +2862,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>96</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>97</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>100</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -2936,14 +2935,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>102</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>104</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>105</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>108</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>109</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>110</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
         <v>111</v>
       </c>
@@ -3064,14 +3063,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="15.75" thickBot="1">
       <c r="A175" t="s">
         <v>116</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="27" thickBot="1">
       <c r="A176" s="3" t="s">
         <v>113</v>
       </c>
@@ -3112,14 +3111,14 @@
       <c r="N176" s="1"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>119</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>120</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -3163,14 +3162,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>122</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>123</v>
       </c>
@@ -3192,14 +3191,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>124</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>125</v>
       </c>
@@ -3231,7 +3230,7 @@
     <mergeCell ref="A27:C27"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C59 C37:C46 C84:C87 C70:C82 C98:C100 C102:C105 C107:C113 C115:C123 C89:C90 C92:C94 C125:C126 C128:C130 C133:C141 C143:C150 C155:C160 C162:C172 C153 C174:C175 C178:C181 C183:C184 C186:C187 C3:C9 C11:C15 C17:C26 C28:C35 C61:C67" xr:uid="{EA2077B9-CEDF-49B1-BD93-E5E3DADBCD74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C59 C37:C46 C84:C87 C70:C82 C98:C100 C102:C105 C107:C113 C115:C123 C89:C90 C92:C94 C125:C126 C128:C130 C133:C141 C143:C150 C155:C160 C162:C172 C153 C174:C175 C178:C181 C183:C184 C186:C187 C3:C9 C11:C15 C17:C26 C28:C35 C61:C67">
       <formula1>"Complete, Incomplete"</formula1>
     </dataValidation>
   </dataValidations>
